--- a/Prisdata DST/8var_est_res_tjek.xlsx
+++ b/Prisdata DST/8var_est_res_tjek.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>kod_fisk_mej</t>
   </si>
@@ -53,6 +53,12 @@
     <t>acorr</t>
   </si>
   <si>
+    <t>ownp_el</t>
+  </si>
+  <si>
+    <t>inc_el</t>
+  </si>
+  <si>
     <t>decil.1</t>
   </si>
   <si>
@@ -68,6 +74,12 @@
     <t>acorr.1</t>
   </si>
   <si>
+    <t>ownp_el.1</t>
+  </si>
+  <si>
+    <t>inc_el.1</t>
+  </si>
+  <si>
     <t>decil.2</t>
   </si>
   <si>
@@ -83,6 +95,12 @@
     <t>acorr.2</t>
   </si>
   <si>
+    <t>ownp_el.2</t>
+  </si>
+  <si>
+    <t>inc_el.2</t>
+  </si>
+  <si>
     <t>decil.3</t>
   </si>
   <si>
@@ -98,6 +116,12 @@
     <t>acorr.3</t>
   </si>
   <si>
+    <t>ownp_el.3</t>
+  </si>
+  <si>
+    <t>inc_el.3</t>
+  </si>
+  <si>
     <t>decil.4</t>
   </si>
   <si>
@@ -113,6 +137,12 @@
     <t>acorr.4</t>
   </si>
   <si>
+    <t>ownp_el.4</t>
+  </si>
+  <si>
+    <t>inc_el.4</t>
+  </si>
+  <si>
     <t>decil.5</t>
   </si>
   <si>
@@ -128,6 +158,12 @@
     <t>acorr.5</t>
   </si>
   <si>
+    <t>ownp_el.5</t>
+  </si>
+  <si>
+    <t>inc_el.5</t>
+  </si>
+  <si>
     <t>decil.6</t>
   </si>
   <si>
@@ -143,6 +179,12 @@
     <t>acorr.6</t>
   </si>
   <si>
+    <t>ownp_el.6</t>
+  </si>
+  <si>
+    <t>inc_el.6</t>
+  </si>
+  <si>
     <t>decil.7</t>
   </si>
   <si>
@@ -158,6 +200,12 @@
     <t>acorr.7</t>
   </si>
   <si>
+    <t>ownp_el.7</t>
+  </si>
+  <si>
+    <t>inc_el.7</t>
+  </si>
+  <si>
     <t>decil.8</t>
   </si>
   <si>
@@ -173,6 +221,12 @@
     <t>acorr.8</t>
   </si>
   <si>
+    <t>ownp_el.8</t>
+  </si>
+  <si>
+    <t>inc_el.8</t>
+  </si>
+  <si>
     <t>decil.9</t>
   </si>
   <si>
@@ -188,6 +242,12 @@
     <t>acorr.9</t>
   </si>
   <si>
+    <t>ownp_el.9</t>
+  </si>
+  <si>
+    <t>inc_el.9</t>
+  </si>
+  <si>
     <t>decil.10</t>
   </si>
   <si>
@@ -201,6 +261,12 @@
   </si>
   <si>
     <t>acorr.10</t>
+  </si>
+  <si>
+    <t>ownp_el.10</t>
+  </si>
+  <si>
+    <t>inc_el.10</t>
   </si>
 </sst>
 </file>
@@ -312,28 +378,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>0.027866759398124455</v>
+        <v>0.032184039253579204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05488850238468749</v>
+        <v>0.0335906886876405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.10791572442557308</v>
+        <v>0.08075356825196008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.041200703831926845</v>
+        <v>0.08311554138968735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01928019268893095</v>
+        <v>0.022792761015764565</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2501500826481866</v>
+        <v>0.2517747937696946</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2607338921954259</v>
+        <v>0.30506813389916765</v>
       </c>
       <c r="I3" t="n">
-        <v>0.23796414242714464</v>
+        <v>0.19072047373250614</v>
       </c>
     </row>
     <row r="4">
@@ -341,28 +407,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>4739.539559111417</v>
+        <v>4551.322253101009</v>
       </c>
       <c r="C4" t="n">
-        <v>2785.080766178058</v>
+        <v>3425.0076117796525</v>
       </c>
       <c r="D4" t="n">
-        <v>-64.99523294081939</v>
+        <v>6382.258299909206</v>
       </c>
       <c r="E4" t="n">
-        <v>17168.477831001594</v>
+        <v>24466.43840324304</v>
       </c>
       <c r="F4" t="n">
-        <v>579.9161992853245</v>
+        <v>653.799345328021</v>
       </c>
       <c r="G4" t="n">
-        <v>2669.0255664920974</v>
+        <v>8878.35510873867</v>
       </c>
       <c r="H4" t="n">
-        <v>5700.553311055595</v>
+        <v>11401.712028448248</v>
       </c>
       <c r="I4" t="n">
-        <v>-3583.566542742135</v>
+        <v>3797.978876064451</v>
       </c>
     </row>
     <row r="5">
@@ -370,28 +436,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6340079746466157</v>
+        <v>0.6830992522117995</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8694980768819526</v>
+        <v>0.8839990615683097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9737100895856564</v>
+        <v>0.9171787930797167</v>
       </c>
       <c r="E5" t="n">
-        <v>0.22218627791792647</v>
+        <v>-0.046898756684375986</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8850843258300458</v>
+        <v>0.9150302754841829</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7645153695631184</v>
+        <v>0.733952666614879</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8066014003982576</v>
+        <v>0.788360669863564</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9940897038736897</v>
+        <v>0.9541582370983187</v>
       </c>
     </row>
     <row r="6">
@@ -399,28 +465,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5</v>
+        <v>0.08387250476717246</v>
       </c>
     </row>
     <row r="7">
@@ -428,28 +494,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>-0.03778953668337093</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>-0.04092431164657795</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>-0.07766804426334661</v>
       </c>
       <c r="E7" t="n">
-        <v>1.0</v>
+        <v>-0.07981764138032443</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>-0.032956655985113104</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0</v>
+        <v>-0.25657721890456964</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>-0.3059030752630979</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
+        <v>-0.18626631619572076</v>
       </c>
     </row>
     <row r="8">
@@ -457,28 +523,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02438710261549418</v>
+        <v>0.03628866341680721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05245128149016167</v>
+        <v>0.039621053196228974</v>
       </c>
       <c r="D8" t="n">
-        <v>0.13183816440514676</v>
+        <v>0.09872912926691695</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07592836042665528</v>
+        <v>0.10042400874256922</v>
       </c>
       <c r="F8" t="n">
-        <v>0.025100776981528447</v>
+        <v>0.026780951605881783</v>
       </c>
       <c r="G8" t="n">
-        <v>0.21399257033720656</v>
+        <v>0.2777043452136739</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2501184334518277</v>
+        <v>0.32041967184726244</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2261833102919793</v>
+        <v>0.23258840351052182</v>
       </c>
     </row>
     <row r="9">
@@ -486,28 +552,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>3655.0821486853615</v>
+        <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>1065.5254959469041</v>
+        <v>1.0</v>
       </c>
       <c r="D9" t="n">
-        <v>23670.086286403137</v>
+        <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>5911.570323733392</v>
+        <v>1.0</v>
       </c>
       <c r="F9" t="n">
-        <v>947.1497002906904</v>
+        <v>1.0</v>
       </c>
       <c r="G9" t="n">
-        <v>5716.945465633736</v>
+        <v>1.0</v>
       </c>
       <c r="H9" t="n">
-        <v>10805.175672322883</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>8029.949721473282</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -515,28 +581,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6266672680155525</v>
+        <v>0.025640093561979133</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9184093116901306</v>
+        <v>0.049023587882514034</v>
       </c>
       <c r="D10" t="n">
-        <v>0.49212926800780865</v>
+        <v>0.12437479454233744</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5873333429733498</v>
+        <v>0.06628751794888879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7379393260278685</v>
+        <v>0.034736090361441235</v>
       </c>
       <c r="G10" t="n">
-        <v>0.530754242536011</v>
+        <v>0.2271610690311742</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6143706298322076</v>
+        <v>0.24454243292175715</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7362392375117988</v>
+        <v>0.22823441374990802</v>
       </c>
     </row>
     <row r="11">
@@ -544,28 +610,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>2795.6925073709067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>-819.0119008233875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>19165.205631654928</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>3809.8006809391927</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5</v>
+        <v>544.5270103284446</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>-711.3300494239018</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5</v>
+        <v>4403.089322150723</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>3157.728910097674</v>
       </c>
     </row>
     <row r="12">
@@ -573,28 +639,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>0.6584209731232368</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>0.9582424420652977</v>
       </c>
       <c r="D12" t="n">
-        <v>2.0</v>
+        <v>0.539257566858548</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>0.6492861732340129</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>0.6731946465513984</v>
       </c>
       <c r="G12" t="n">
-        <v>2.0</v>
+        <v>0.6537426464729105</v>
       </c>
       <c r="H12" t="n">
-        <v>2.0</v>
+        <v>0.683421027805366</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0</v>
+        <v>0.7619400255222162</v>
       </c>
     </row>
     <row r="13">
@@ -602,28 +668,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03648048399560788</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0840775188788569</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1377025953556821</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04797357563103814</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.044154754208213076</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17751171461446683</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="H13" t="n">
-        <v>0.36414276616503527</v>
+        <v>-0.19371594281160281</v>
       </c>
       <c r="I13" t="n">
-        <v>0.10795659115109987</v>
+        <v>-0.19371594281160281</v>
       </c>
     </row>
     <row r="14">
@@ -631,28 +697,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>4550.458432177069</v>
+        <v>-0.10330829115785667</v>
       </c>
       <c r="C14" t="n">
-        <v>4928.947025939135</v>
+        <v>-0.11356188630809883</v>
       </c>
       <c r="D14" t="n">
-        <v>24207.333906655735</v>
+        <v>-0.18903321353653246</v>
       </c>
       <c r="E14" t="n">
-        <v>19750.391787733766</v>
+        <v>-0.1844276648584129</v>
       </c>
       <c r="F14" t="n">
-        <v>1552.8703390275525</v>
+        <v>-0.2424847194471521</v>
       </c>
       <c r="G14" t="n">
-        <v>2213.8957177232237</v>
+        <v>-0.5231097512889715</v>
       </c>
       <c r="H14" t="n">
-        <v>6865.53355347412</v>
+        <v>-0.38861566935536707</v>
       </c>
       <c r="I14" t="n">
-        <v>1225.5879495319853</v>
+        <v>-0.3523632292052966</v>
       </c>
     </row>
     <row r="15">
@@ -660,28 +726,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6006498949982937</v>
+        <v>0.026760639205759076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7803157982982499</v>
+        <v>0.054312413226942906</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5495733635426142</v>
+        <v>0.140360682681739</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01600309907349111</v>
+        <v>0.06970711406601621</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6564569676039607</v>
+        <v>0.03236652455052764</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8022123420120842</v>
+        <v>0.15560740153888244</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7472814655853562</v>
+        <v>0.20811476316650712</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9629832607509303</v>
+        <v>0.23229198187615296</v>
       </c>
     </row>
     <row r="16">
@@ -689,28 +755,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -718,28 +784,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>3.0</v>
+        <v>0.033411290660045015</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>0.08319614810559718</v>
       </c>
       <c r="D17" t="n">
-        <v>3.0</v>
+        <v>0.12869471136322402</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>0.055379906668908</v>
       </c>
       <c r="F17" t="n">
-        <v>3.0</v>
+        <v>0.05313872405447732</v>
       </c>
       <c r="G17" t="n">
-        <v>3.0</v>
+        <v>0.18616411675527048</v>
       </c>
       <c r="H17" t="n">
-        <v>3.0</v>
+        <v>0.36283391183077857</v>
       </c>
       <c r="I17" t="n">
-        <v>3.0</v>
+        <v>0.09718119056169951</v>
       </c>
     </row>
     <row r="18">
@@ -747,28 +813,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01608367050057311</v>
+        <v>4740.83173866087</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03665480231482185</v>
+        <v>3392.142724493224</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06979603722787261</v>
+        <v>18690.688289580212</v>
       </c>
       <c r="E18" t="n">
-        <v>0.026990205135926006</v>
+        <v>18958.668488043528</v>
       </c>
       <c r="F18" t="n">
-        <v>0.036912909621722424</v>
+        <v>1057.4180824312466</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3224364672083996</v>
+        <v>59.292603067406986</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2835710112959074</v>
+        <v>3760.414232283148</v>
       </c>
       <c r="I18" t="n">
-        <v>0.20755489669477706</v>
+        <v>575.1157505294794</v>
       </c>
     </row>
     <row r="19">
@@ -776,28 +842,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>3830.32759238615</v>
+        <v>0.5834620998291166</v>
       </c>
       <c r="C19" t="n">
-        <v>3399.8881618353685</v>
+        <v>0.8378121560102333</v>
       </c>
       <c r="D19" t="n">
-        <v>12670.61140164068</v>
+        <v>0.6511512589765522</v>
       </c>
       <c r="E19" t="n">
-        <v>17376.935429311965</v>
+        <v>0.024740966015469937</v>
       </c>
       <c r="F19" t="n">
-        <v>828.3226283442436</v>
+        <v>0.7388961044436584</v>
       </c>
       <c r="G19" t="n">
-        <v>3028.0338061510565</v>
+        <v>0.9418559312371926</v>
       </c>
       <c r="H19" t="n">
-        <v>7403.102810595727</v>
+        <v>0.8373429222107566</v>
       </c>
       <c r="I19" t="n">
-        <v>-1679.269347694644</v>
+        <v>0.981501028168732</v>
       </c>
     </row>
     <row r="20">
@@ -805,28 +871,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6432074980646338</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8210660192617749</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7476777507459409</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1352374332220285</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6852295244262403</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3601475859462975</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="H20" t="n">
-        <v>0.594687401676606</v>
+        <v>-0.2569096934103902</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9242341071308755</v>
+        <v>-0.2569096934103902</v>
       </c>
     </row>
     <row r="21">
@@ -834,28 +900,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5</v>
+        <v>-0.05528899492288797</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>-0.10974210165392684</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>-0.13949650517225276</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>-0.06669777507361163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>-0.11971441313536502</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>-0.24332935584088244</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5</v>
+        <v>-0.39662967695800744</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5</v>
+        <v>-0.10503283650649287</v>
       </c>
     </row>
     <row r="22">
@@ -863,28 +929,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>0.0370342571076825</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0</v>
+        <v>0.09601917201944207</v>
       </c>
       <c r="D22" t="n">
-        <v>4.0</v>
+        <v>0.15487141658280432</v>
       </c>
       <c r="E22" t="n">
-        <v>4.0</v>
+        <v>0.06587389835721742</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
+        <v>0.05865677223376967</v>
       </c>
       <c r="G22" t="n">
-        <v>4.0</v>
+        <v>0.19214669576357765</v>
       </c>
       <c r="H22" t="n">
-        <v>4.0</v>
+        <v>0.3613130064996013</v>
       </c>
       <c r="I22" t="n">
-        <v>4.0</v>
+        <v>0.11684112196091005</v>
       </c>
     </row>
     <row r="23">
@@ -892,28 +958,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02349146975948994</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08540910942786686</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08583222188433014</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.016616989015158044</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.030970996082117484</v>
+        <v>3.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2956400436732802</v>
+        <v>3.0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.23914785907883931</v>
+        <v>3.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.22289131107891802</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -921,28 +987,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>5230.431217711531</v>
+        <v>0.019702398696013597</v>
       </c>
       <c r="C24" t="n">
-        <v>4586.964132508286</v>
+        <v>0.044537580822971976</v>
       </c>
       <c r="D24" t="n">
-        <v>19585.47408301062</v>
+        <v>0.055639265510373875</v>
       </c>
       <c r="E24" t="n">
-        <v>10132.964233785884</v>
+        <v>0.023321445857700508</v>
       </c>
       <c r="F24" t="n">
-        <v>418.3214599757422</v>
+        <v>0.04200332752780112</v>
       </c>
       <c r="G24" t="n">
-        <v>3358.189531537084</v>
+        <v>0.3090104492253403</v>
       </c>
       <c r="H24" t="n">
-        <v>6863.60036683712</v>
+        <v>0.2954865228505873</v>
       </c>
       <c r="I24" t="n">
-        <v>317.16863651187947</v>
+        <v>0.21029900950921138</v>
       </c>
     </row>
     <row r="25">
@@ -950,28 +1016,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5663855469085534</v>
+        <v>4219.835075595918</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7553707431990981</v>
+        <v>3275.192694094835</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6585723496277833</v>
+        <v>11831.381977862666</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5317923368063403</v>
+        <v>17676.393984292354</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8250460936066609</v>
+        <v>507.1355440186584</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5215266343474554</v>
+        <v>1335.983795882174</v>
       </c>
       <c r="H25" t="n">
-        <v>0.7137478206808613</v>
+        <v>4961.420139269823</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8926269979454636</v>
+        <v>-2993.7971257174663</v>
       </c>
     </row>
     <row r="26">
@@ -979,28 +1045,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5</v>
+        <v>0.5915091980581356</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5</v>
+        <v>0.8055316399494523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5</v>
+        <v>0.7641258291371033</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5</v>
+        <v>0.1218387753485853</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5</v>
+        <v>0.6807909847245381</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.38509806566748794</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5</v>
+        <v>0.612172744152188</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
+        <v>0.9287208183484315</v>
       </c>
     </row>
     <row r="27">
@@ -1008,28 +1074,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="C27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="F27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="G27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="H27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
       <c r="I27" t="n">
-        <v>5.0</v>
+        <v>-0.01806804187486095</v>
       </c>
     </row>
     <row r="28">
@@ -1037,28 +1103,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02367757085824797</v>
+        <v>-0.07737583470145437</v>
       </c>
       <c r="C28" t="n">
-        <v>0.041357008541998835</v>
+        <v>-0.10903010958007031</v>
       </c>
       <c r="D28" t="n">
-        <v>0.11838845787901636</v>
+        <v>-0.08789335737086545</v>
       </c>
       <c r="E28" t="n">
-        <v>0.029465227622024723</v>
+        <v>-0.059750732721812416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.019190798654910354</v>
+        <v>-0.2632317788456153</v>
       </c>
       <c r="G28" t="n">
-        <v>0.27409747296267967</v>
+        <v>-0.6863265983845386</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2542589048540333</v>
+        <v>-0.47390249861966194</v>
       </c>
       <c r="I28" t="n">
-        <v>0.23956455862708886</v>
+        <v>-0.32384883466743275</v>
       </c>
     </row>
     <row r="29">
@@ -1066,28 +1132,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>3709.854938587877</v>
+        <v>0.02102999244830006</v>
       </c>
       <c r="C29" t="n">
-        <v>4686.178274049034</v>
+        <v>0.049361843701052434</v>
       </c>
       <c r="D29" t="n">
-        <v>32169.243610908015</v>
+        <v>0.06548131129713854</v>
       </c>
       <c r="E29" t="n">
-        <v>20600.21174727178</v>
+        <v>0.027029800976328955</v>
       </c>
       <c r="F29" t="n">
-        <v>383.0528980984199</v>
+        <v>0.03835485848376101</v>
       </c>
       <c r="G29" t="n">
-        <v>28280.26949438348</v>
+        <v>0.15572067395854666</v>
       </c>
       <c r="H29" t="n">
-        <v>17823.224289677688</v>
+        <v>0.23203796260858872</v>
       </c>
       <c r="I29" t="n">
-        <v>13999.85948728875</v>
+        <v>0.21838627772522132</v>
       </c>
     </row>
     <row r="30">
@@ -1095,28 +1161,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>0.788961095605547</v>
+        <v>4.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8856310273260496</v>
+        <v>4.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.5969578987567958</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.16463149739523522</v>
+        <v>4.0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0027070380471441</v>
+        <v>4.0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2964042361001633</v>
+        <v>4.0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7880837897855169</v>
+        <v>4.0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9115543670071452</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1124,28 +1190,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5</v>
+        <v>0.025395860639553285</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>0.09130017010761385</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.08524901137900393</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>0.014864279483104864</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.03407509776347856</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>0.28482149263414724</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5</v>
+        <v>0.2469272968858357</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5</v>
+        <v>0.2173667911072625</v>
       </c>
     </row>
     <row r="32">
@@ -1153,28 +1219,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>4847.781323804048</v>
       </c>
       <c r="C32" t="n">
-        <v>6.0</v>
+        <v>4659.773691623796</v>
       </c>
       <c r="D32" t="n">
-        <v>6.0</v>
+        <v>13860.746237427451</v>
       </c>
       <c r="E32" t="n">
-        <v>6.0</v>
+        <v>10023.820116691179</v>
       </c>
       <c r="F32" t="n">
-        <v>6.0</v>
+        <v>567.9694370043919</v>
       </c>
       <c r="G32" t="n">
-        <v>6.0</v>
+        <v>7731.084951222758</v>
       </c>
       <c r="H32" t="n">
-        <v>6.0</v>
+        <v>11271.38990748444</v>
       </c>
       <c r="I32" t="n">
-        <v>6.0</v>
+        <v>4299.5226757621</v>
       </c>
     </row>
     <row r="33">
@@ -1182,28 +1248,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>0.03494192088370786</v>
+        <v>0.633229601056888</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06556988003772905</v>
+        <v>0.8244376000612411</v>
       </c>
       <c r="D33" t="n">
-        <v>0.13922516145353211</v>
+        <v>0.7808482048437806</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07156549661102347</v>
+        <v>0.5572567359692636</v>
       </c>
       <c r="F33" t="n">
-        <v>0.021648442886564298</v>
+        <v>0.8959972440783295</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2929010798320441</v>
+        <v>0.634020552707273</v>
       </c>
       <c r="H33" t="n">
-        <v>0.13028708570750175</v>
+        <v>0.7348286846932542</v>
       </c>
       <c r="I33" t="n">
-        <v>0.24386093258789723</v>
+        <v>0.9181787384089249</v>
       </c>
     </row>
     <row r="34">
@@ -1211,28 +1277,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>7904.045565974637</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="C34" t="n">
-        <v>462.4289020306459</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="D34" t="n">
-        <v>22986.593614371046</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="E34" t="n">
-        <v>11233.059323169839</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="F34" t="n">
-        <v>110.9338517109841</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="G34" t="n">
-        <v>11973.790416188867</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="H34" t="n">
-        <v>10044.052252450105</v>
+        <v>-0.14143919906272043</v>
       </c>
       <c r="I34" t="n">
-        <v>11653.132939658935</v>
+        <v>-0.14143919906272043</v>
       </c>
     </row>
     <row r="35">
@@ -1240,28 +1306,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5035083171007309</v>
+        <v>-0.03487114786812562</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9823543548646724</v>
+        <v>-0.10779713005676539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6891166924820177</v>
+        <v>-0.08953966103607125</v>
       </c>
       <c r="E35" t="n">
-        <v>0.559837795340546</v>
+        <v>-0.012774003994621141</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9861039106167738</v>
+        <v>-0.0623311277705072</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6711552498356156</v>
+        <v>-0.32621208669772994</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8231676541966738</v>
+        <v>-0.26055887177380077</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8437242520730697</v>
+        <v>-0.22541540365883295</v>
       </c>
     </row>
     <row r="36">
@@ -1269,28 +1335,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5</v>
+        <v>0.02852154915181257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5</v>
+        <v>0.106544267281412</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>0.10338934356992477</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5</v>
+        <v>0.017933307805275262</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>0.039274715708007925</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>0.2978848494175254</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5</v>
+        <v>0.25496480275842104</v>
       </c>
       <c r="I36" t="n">
-        <v>0.5</v>
+        <v>0.26092204818363296</v>
       </c>
     </row>
     <row r="37">
@@ -1298,28 +1364,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
@@ -1327,28 +1393,28 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>0.03361325963358137</v>
+        <v>0.029663984973466714</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0901327954878317</v>
+        <v>0.04868009599185509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.10064858668019033</v>
+        <v>0.13246018182906852</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03469085987161832</v>
+        <v>0.041068298317017915</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02450117439325497</v>
+        <v>0.01604441713514488</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2990636721876921</v>
+        <v>0.28852807030049615</v>
       </c>
       <c r="H38" t="n">
-        <v>0.26040617401004507</v>
+        <v>0.21773201838244402</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1569434777357862</v>
+        <v>0.22582293307050677</v>
       </c>
     </row>
     <row r="39">
@@ -1356,28 +1422,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>5936.392343701469</v>
+        <v>3391.039266611952</v>
       </c>
       <c r="C39" t="n">
-        <v>5528.4218881848365</v>
+        <v>2885.2023978787756</v>
       </c>
       <c r="D39" t="n">
-        <v>15663.652596804824</v>
+        <v>10419.757402887297</v>
       </c>
       <c r="E39" t="n">
-        <v>10600.167915858738</v>
+        <v>21130.176469060363</v>
       </c>
       <c r="F39" t="n">
-        <v>1679.0667001673598</v>
+        <v>136.37319678767486</v>
       </c>
       <c r="G39" t="n">
-        <v>13539.052156176529</v>
+        <v>9559.12792967049</v>
       </c>
       <c r="H39" t="n">
-        <v>6524.162210930692</v>
+        <v>970.4545311833195</v>
       </c>
       <c r="I39" t="n">
-        <v>1794.89765953452</v>
+        <v>-5984.4601802578245</v>
       </c>
     </row>
     <row r="40">
@@ -1385,28 +1451,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5697983139801207</v>
+        <v>0.7156591309335424</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7552843916066239</v>
+        <v>0.8641157112134593</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7530405717252467</v>
+        <v>0.8058250375884298</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5322019485982512</v>
+        <v>0.06551724525883132</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7833503429498723</v>
+        <v>0.925410721958667</v>
       </c>
       <c r="G40" t="n">
-        <v>0.41923908120455766</v>
+        <v>0.4412549744524576</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7716794052898852</v>
+        <v>0.88933583919542</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9256962958360877</v>
+        <v>1.0348443131759513</v>
       </c>
     </row>
     <row r="41">
@@ -1414,28 +1480,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
       <c r="I41" t="n">
-        <v>0.5</v>
+        <v>-0.14324174518647956</v>
       </c>
     </row>
     <row r="42">
@@ -1443,28 +1509,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>8.0</v>
+        <v>-0.0806552239633016</v>
       </c>
       <c r="C42" t="n">
-        <v>8.0</v>
+        <v>-0.09100758372014761</v>
       </c>
       <c r="D42" t="n">
-        <v>8.0</v>
+        <v>-0.1731830275048335</v>
       </c>
       <c r="E42" t="n">
-        <v>8.0</v>
+        <v>-0.0719322859014474</v>
       </c>
       <c r="F42" t="n">
-        <v>8.0</v>
+        <v>-0.06731239047944582</v>
       </c>
       <c r="G42" t="n">
-        <v>8.0</v>
+        <v>-0.45102740200680225</v>
       </c>
       <c r="H42" t="n">
-        <v>8.0</v>
+        <v>-0.28896809233645804</v>
       </c>
       <c r="I42" t="n">
-        <v>8.0</v>
+        <v>-0.28452410897402025</v>
       </c>
     </row>
     <row r="43">
@@ -1472,28 +1538,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04498898228188042</v>
+        <v>0.03187416982607687</v>
       </c>
       <c r="C43" t="n">
-        <v>0.054737785851836876</v>
+        <v>0.05528412416185745</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17879786376190523</v>
+        <v>0.15382736295344762</v>
       </c>
       <c r="E43" t="n">
-        <v>0.054680600893663014</v>
+        <v>0.047851407904832687</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04182077636515441</v>
+        <v>0.018057368500855486</v>
       </c>
       <c r="G43" t="n">
-        <v>0.30736927110940765</v>
+        <v>0.24714274369393865</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1051850684627941</v>
+        <v>0.20811350624708333</v>
       </c>
       <c r="I43" t="n">
-        <v>0.21241965127335835</v>
+        <v>0.25312191441194387</v>
       </c>
     </row>
     <row r="44">
@@ -1501,28 +1567,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>-1457.5192823832256</v>
+        <v>6.0</v>
       </c>
       <c r="C44" t="n">
-        <v>5212.790635509985</v>
+        <v>6.0</v>
       </c>
       <c r="D44" t="n">
-        <v>28249.391108949374</v>
+        <v>6.0</v>
       </c>
       <c r="E44" t="n">
-        <v>23741.281816584054</v>
+        <v>6.0</v>
       </c>
       <c r="F44" t="n">
-        <v>-1324.44843517567</v>
+        <v>6.0</v>
       </c>
       <c r="G44" t="n">
-        <v>16678.203562742212</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="n">
-        <v>13141.100013291107</v>
+        <v>6.0</v>
       </c>
       <c r="I44" t="n">
-        <v>2860.5428260512513</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="45">
@@ -1530,28 +1596,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>1.0005827005759964</v>
+        <v>0.032656291613965785</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8034128407727065</v>
+        <v>0.04909006988345536</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5755805104131291</v>
+        <v>0.1749327878622201</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.026543882116980593</v>
+        <v>0.06314202773673191</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9853646015773188</v>
+        <v>0.004227504499049152</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3935705976262709</v>
+        <v>0.2764595121676693</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7514364488719489</v>
+        <v>0.11085565652432874</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9007766903802187</v>
+        <v>0.2886361497125796</v>
       </c>
     </row>
     <row r="46">
@@ -1559,28 +1625,28 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5</v>
+        <v>19599.664854435785</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5</v>
+        <v>13055.314810930788</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5</v>
+        <v>24147.785141544962</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5</v>
+        <v>10566.909706583683</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5</v>
+        <v>9127.903077009078</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>-32823.7855103044</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5</v>
+        <v>22626.68153383727</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5</v>
+        <v>9210.483333747019</v>
       </c>
     </row>
     <row r="47">
@@ -1588,28 +1654,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>9.0</v>
+        <v>-0.7227956321963531</v>
       </c>
       <c r="C47" t="n">
-        <v>9.0</v>
+        <v>0.21318602442649628</v>
       </c>
       <c r="D47" t="n">
-        <v>9.0</v>
+        <v>0.06402997274350775</v>
       </c>
       <c r="E47" t="n">
-        <v>9.0</v>
+        <v>-0.02137164222209879</v>
       </c>
       <c r="F47" t="n">
-        <v>9.0</v>
+        <v>0.06993547071941204</v>
       </c>
       <c r="G47" t="n">
-        <v>9.0</v>
+        <v>0.0035804291286890473</v>
       </c>
       <c r="H47" t="n">
-        <v>9.0</v>
+        <v>0.11548525280027433</v>
       </c>
       <c r="I47" t="n">
-        <v>9.0</v>
+        <v>-0.0970007530771068</v>
       </c>
     </row>
     <row r="48">
@@ -1617,28 +1683,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>0.03502821934269452</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03334519670017485</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="D48" t="n">
-        <v>0.13335357015805535</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="E48" t="n">
-        <v>0.029459725720640595</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="F48" t="n">
-        <v>0.052661655337041695</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2302303924470018</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2552882536379541</v>
+        <v>0.8249650299413964</v>
       </c>
       <c r="I48" t="n">
-        <v>0.23063298665643714</v>
+        <v>0.8249650299413964</v>
       </c>
     </row>
     <row r="49">
@@ -1646,28 +1712,28 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>5673.0210093452015</v>
+        <v>-0.5011159017760556</v>
       </c>
       <c r="C49" t="n">
-        <v>5248.318052136406</v>
+        <v>-0.44026547627132473</v>
       </c>
       <c r="D49" t="n">
-        <v>-825.5933166695019</v>
+        <v>-0.6707645518698797</v>
       </c>
       <c r="E49" t="n">
-        <v>24015.544698436188</v>
+        <v>-0.6222864129832631</v>
       </c>
       <c r="F49" t="n">
-        <v>1133.717207120428</v>
+        <v>-0.11846208447084527</v>
       </c>
       <c r="G49" t="n">
-        <v>2569.038978106929</v>
+        <v>-1.660300873076809</v>
       </c>
       <c r="H49" t="n">
-        <v>9423.479999712476</v>
+        <v>-0.5328865915195813</v>
       </c>
       <c r="I49" t="n">
-        <v>-6522.0050776238895</v>
+        <v>-0.9725307226617287</v>
       </c>
     </row>
     <row r="50">
@@ -1675,28 +1741,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.41599387601162474</v>
+        <v>0.01910024084199428</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7506605664121686</v>
+        <v>0.034344064679404436</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8264199087180267</v>
+        <v>0.08505831195975318</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.0678789706086584</v>
+        <v>0.03064808894542321</v>
       </c>
       <c r="F50" t="n">
-        <v>0.4374847371611835</v>
+        <v>0.004443597887544444</v>
       </c>
       <c r="G50" t="n">
-        <v>0.42476179948841053</v>
+        <v>-0.28007701303303983</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4831481315583144</v>
+        <v>0.06124242155476295</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7792942963873087</v>
+        <v>0.013518022525697556</v>
       </c>
     </row>
     <row r="51">
@@ -1704,28 +1770,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="52">
@@ -1733,28 +1799,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10.0</v>
+        <v>0.037167877870337346</v>
       </c>
       <c r="C52" t="n">
-        <v>10.0</v>
+        <v>0.09260003195049517</v>
       </c>
       <c r="D52" t="n">
-        <v>10.0</v>
+        <v>0.08081201821481807</v>
       </c>
       <c r="E52" t="n">
-        <v>10.0</v>
+        <v>0.03536261887357758</v>
       </c>
       <c r="F52" t="n">
-        <v>10.0</v>
+        <v>0.033118378637283084</v>
       </c>
       <c r="G52" t="n">
-        <v>10.0</v>
+        <v>0.3131622154841161</v>
       </c>
       <c r="H52" t="n">
-        <v>10.0</v>
+        <v>0.26044866241779324</v>
       </c>
       <c r="I52" t="n">
-        <v>10.0</v>
+        <v>0.14732819655157947</v>
       </c>
     </row>
     <row r="53">
@@ -1762,28 +1828,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>0.019248295642028998</v>
+        <v>2730.191792657255</v>
       </c>
       <c r="C53" t="n">
-        <v>9.635167749889429E-4</v>
+        <v>5163.227251557042</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07837028711377488</v>
+        <v>11524.009641123492</v>
       </c>
       <c r="E53" t="n">
-        <v>0.033525131285655</v>
+        <v>8743.571107696664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001490522564297501</v>
+        <v>1143.898729458685</v>
       </c>
       <c r="G53" t="n">
-        <v>0.14588213096888272</v>
+        <v>11663.055973221757</v>
       </c>
       <c r="H53" t="n">
-        <v>0.47141273263959843</v>
+        <v>3435.014427028548</v>
       </c>
       <c r="I53" t="n">
-        <v>0.24910738301077354</v>
+        <v>119.05089230436488</v>
       </c>
     </row>
     <row r="54">
@@ -1791,28 +1857,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>3407.1236328676036</v>
+        <v>0.7694142148040385</v>
       </c>
       <c r="C54" t="n">
-        <v>11054.899236142528</v>
+        <v>0.7736087544625575</v>
       </c>
       <c r="D54" t="n">
-        <v>11001.230817890899</v>
+        <v>0.8229806543742562</v>
       </c>
       <c r="E54" t="n">
-        <v>20805.13352509019</v>
+        <v>0.6151570423892989</v>
       </c>
       <c r="F54" t="n">
-        <v>-65.30904306925677</v>
+        <v>0.8157469551293877</v>
       </c>
       <c r="G54" t="n">
-        <v>36923.641658734356</v>
+        <v>0.49363822467860735</v>
       </c>
       <c r="H54" t="n">
-        <v>60120.96707743575</v>
+        <v>0.8410562941857768</v>
       </c>
       <c r="I54" t="n">
-        <v>12678.974941062705</v>
+        <v>0.9620515133672706</v>
       </c>
     </row>
     <row r="55">
@@ -1820,28 +1886,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7693939899057024</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7254668588776945</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8796598642189846</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="E55" t="n">
-        <v>0.24266587762452307</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9777007181360299</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3281142520968449</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="H55" t="n">
-        <v>0.10526962334368987</v>
+        <v>-0.25318902303092206</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7843018983440856</v>
+        <v>-0.25318902303092206</v>
       </c>
     </row>
     <row r="56">
@@ -1849,28 +1915,666 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5</v>
+        <v>-0.0973325135393357</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5</v>
+        <v>-0.16566612773073575</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
+        <v>-0.10472680716379512</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5</v>
+        <v>-0.07190789245043716</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5</v>
+        <v>-0.11482286225178606</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5</v>
+        <v>-0.45996417804777134</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5</v>
+        <v>-0.3376827541027614</v>
       </c>
       <c r="I56" t="n">
-        <v>0.5</v>
+        <v>-0.18609692896571395</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.039518288041398265</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.10119698730875824</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.09590814219289594</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.04096070627272819</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.035999440708099024</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2733409140866123</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.2452812215949235</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.17056254154257192</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.045177368314748084</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.05364503992035512</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.18150247352848403</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.04776583115217104</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.04472976664355734</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.31149231278142847</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.09868118393386688</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.217006023725389</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-2991.3329802811695</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5357.839932133579</v>
+      </c>
+      <c r="D60" t="n">
+        <v>27348.743365566115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26706.78298966723</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-2454.799485227792</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12252.637817168325</v>
+      </c>
+      <c r="H60" t="n">
+        <v>12330.014150844512</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-1729.6163270964155</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.0242394722603485</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.7590204828036805</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5227139309526965</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-0.1879633243085849</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.972604098826415</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3057348120149414</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.7292593682168904</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8857196475889524</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.11091513475144822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-0.19201955174871221</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.1405927447580394</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.290307952259671</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.15267705961292866</v>
+      </c>
+      <c r="F63" t="n">
+        <v>-0.2471439325014907</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.5930859000053308</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.16507005434152355</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.33085940078577714</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.04335629914931986</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.05790150563941252</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.19176237410492197</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.05117037111058649</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.041855462513450035</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.20436577863052527</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.09612810562427479</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.22492501078664648</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.03401205514410163</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.030931710944763234</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.15399094085801973</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.03881625019322132</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.04741636366835712</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.2236086672729267</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.2390622685889931</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.23216174332961725</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" t="n">
+        <v>5004.419211207939</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6967.463885865936</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-5656.052559604626</v>
+      </c>
+      <c r="E67" t="n">
+        <v>26538.58262934034</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2002.0529772404261</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-6197.010199232216</v>
+      </c>
+      <c r="H67" t="n">
+        <v>14949.704555116008</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-7275.35943410147</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.3985661858430597</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6842037688481286</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.7947297569447265</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-0.2521932115120875</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.3153517236679319</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.48184972018926076</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3402132663927783</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.7055217633048566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.16035422502128582</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>76</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-0.3253355994072087</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.15663190670701788</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.38881246399762925</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.25508849831680747</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-0.5595199644309031</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-0.7226883426498294</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.5809517651636105</v>
+      </c>
+      <c r="I70" t="n">
+        <v>-0.5303104838173558</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.026940279103674167</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.03199499587267754</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.13555730628284732</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.036216615527033376</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.02603281670825554</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.08866311324949042</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.13844279705308454</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.1722418878680597</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.021273386466653308</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01166653909724296</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.08401061599956634</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.032403156153292756</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.004882415870315801</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.13218832385542983</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.46542897967945757</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.24814658287804153</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2296.733623859275</v>
+      </c>
+      <c r="C74" t="n">
+        <v>9976.563856043102</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1025.8616826065754</v>
+      </c>
+      <c r="E74" t="n">
+        <v>23847.27580451243</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-190.0088934142953</v>
+      </c>
+      <c r="G74" t="n">
+        <v>36251.35575806403</v>
+      </c>
+      <c r="H74" t="n">
+        <v>54906.165078106125</v>
+      </c>
+      <c r="I74" t="n">
+        <v>-2079.4734127012725</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.7573837820339621</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.7204345862065613</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9199641324684364</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.07812721953323871</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9574991953203345</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.23620153042392641</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-0.1024604571049146</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7945198016059756</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.15841659578383926</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.13769557822674294</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.04548175011978273</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.1542714466893551</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-0.14123292098971096</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.0468200912821084</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-0.30828091396139123</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.7266546241876772</v>
+      </c>
+      <c r="I77" t="n">
+        <v>-0.4237106058830967</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.021256363745294243</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.013391773929152187</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.09451549308639157</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.034622967014979154</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.005552710750685119</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.1169672451095338</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.2502673373336132</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.23068680222827515</v>
       </c>
     </row>
   </sheetData>

--- a/Prisdata DST/8var_est_res_tjek.xlsx
+++ b/Prisdata DST/8var_est_res_tjek.xlsx
@@ -523,28 +523,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>0.03628866341680721</v>
+        <v>0.7588427224445986</v>
       </c>
       <c r="C8" t="n">
-        <v>0.039621053196228974</v>
+        <v>0.3733267316076533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09872912926691695</v>
+        <v>0.4172680618268175</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10042400874256922</v>
+        <v>1.311909809660274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.026780951605881783</v>
+        <v>0.8233663218481166</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2777043452136739</v>
+        <v>2.5214925068957394</v>
       </c>
       <c r="H8" t="n">
-        <v>0.32041967184726244</v>
+        <v>1.8020462735068736</v>
       </c>
       <c r="I8" t="n">
-        <v>0.23258840351052182</v>
+        <v>1.0955977153710694</v>
       </c>
     </row>
     <row r="9">
@@ -726,28 +726,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>0.026760639205759076</v>
+        <v>0.5435465735846369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.054312413226942906</v>
+        <v>0.4605632223929071</v>
       </c>
       <c r="D15" t="n">
-        <v>0.140360682681739</v>
+        <v>0.6152965636770698</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06970711406601621</v>
+        <v>0.9643146355296368</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03236652455052764</v>
+        <v>1.5754775680350381</v>
       </c>
       <c r="G15" t="n">
-        <v>0.15560740153888244</v>
+        <v>2.8150391816844675</v>
       </c>
       <c r="H15" t="n">
-        <v>0.20811476316650712</v>
+        <v>1.4565580932668682</v>
       </c>
       <c r="I15" t="n">
-        <v>0.23229198187615296</v>
+        <v>1.3937190896320084</v>
       </c>
     </row>
     <row r="16">
@@ -929,28 +929,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0370342571076825</v>
+        <v>0.6636030014653733</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09601917201944207</v>
+        <v>0.7868612938444624</v>
       </c>
       <c r="D22" t="n">
-        <v>0.15487141658280432</v>
+        <v>0.6016522157942198</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06587389835721742</v>
+        <v>0.7195751674651267</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05865677223376967</v>
+        <v>2.3649266007051444</v>
       </c>
       <c r="G22" t="n">
-        <v>0.19214669576357765</v>
+        <v>2.8128782750931074</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3613130064996013</v>
+        <v>2.2640545598038826</v>
       </c>
       <c r="I22" t="n">
-        <v>0.11684112196091005</v>
+        <v>0.6036323958453548</v>
       </c>
     </row>
     <row r="23">
@@ -1132,28 +1132,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02102999244830006</v>
+        <v>0.41774720863964643</v>
       </c>
       <c r="C29" t="n">
-        <v>0.049361843701052434</v>
+        <v>0.45093253957739887</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06548131129713854</v>
+        <v>0.26276866290119816</v>
       </c>
       <c r="E29" t="n">
-        <v>0.027029800976328955</v>
+        <v>0.3030140424923907</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03835485848376101</v>
+        <v>1.7383192798155505</v>
       </c>
       <c r="G29" t="n">
-        <v>0.15572067395854666</v>
+        <v>4.0544699421737675</v>
       </c>
       <c r="H29" t="n">
-        <v>0.23203796260858872</v>
+        <v>1.910123064139928</v>
       </c>
       <c r="I29" t="n">
-        <v>0.21838627772522132</v>
+        <v>1.2596763893953293</v>
       </c>
     </row>
     <row r="30">
@@ -1335,28 +1335,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02852154915181257</v>
+        <v>0.5601371894741065</v>
       </c>
       <c r="C36" t="n">
-        <v>0.106544267281412</v>
+        <v>0.946508044517078</v>
       </c>
       <c r="D36" t="n">
-        <v>0.10338934356992477</v>
+        <v>0.42362968331754997</v>
       </c>
       <c r="E36" t="n">
-        <v>0.017933307805275262</v>
+        <v>0.21105851767123063</v>
       </c>
       <c r="F36" t="n">
-        <v>0.039274715708007925</v>
+        <v>1.2406839627517263</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2978848494175254</v>
+        <v>3.423397512724108</v>
       </c>
       <c r="H36" t="n">
-        <v>0.25496480275842104</v>
+        <v>1.4993879519216362</v>
       </c>
       <c r="I36" t="n">
-        <v>0.26092204818363296</v>
+        <v>1.2810811214835072</v>
       </c>
     </row>
     <row r="37">
@@ -1538,28 +1538,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03187416982607687</v>
+        <v>0.6652993807221976</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05528412416185745</v>
+        <v>0.515292672854412</v>
       </c>
       <c r="D43" t="n">
-        <v>0.15382736295344762</v>
+        <v>0.6814300006683889</v>
       </c>
       <c r="E43" t="n">
-        <v>0.047851407904832687</v>
+        <v>0.6175661677168934</v>
       </c>
       <c r="F43" t="n">
-        <v>0.018057368500855486</v>
+        <v>0.5776738197981988</v>
       </c>
       <c r="G43" t="n">
-        <v>0.24714274369393865</v>
+        <v>3.2465132327063753</v>
       </c>
       <c r="H43" t="n">
-        <v>0.20811350624708333</v>
+        <v>1.3138363420062649</v>
       </c>
       <c r="I43" t="n">
-        <v>0.25312191441194387</v>
+        <v>1.2779329673375452</v>
       </c>
     </row>
     <row r="44">
@@ -1741,28 +1741,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01910024084199428</v>
+        <v>0.743525661701105</v>
       </c>
       <c r="C50" t="n">
-        <v>0.034344064679404436</v>
+        <v>0.5332275116782752</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08505831195975318</v>
+        <v>0.9415173195790411</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03064808894542321</v>
+        <v>0.9712586142782238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.004443597887544444</v>
+        <v>0.1425672387810933</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.28007701303303983</v>
+        <v>2.7255070390370277</v>
       </c>
       <c r="H50" t="n">
-        <v>0.06124242155476295</v>
+        <v>0.6717517736372691</v>
       </c>
       <c r="I50" t="n">
-        <v>0.013518022525697556</v>
+        <v>1.6300893758786836</v>
       </c>
     </row>
     <row r="51">
@@ -1944,28 +1944,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>0.039518288041398265</v>
+        <v>0.8786493501200595</v>
       </c>
       <c r="C57" t="n">
-        <v>0.10119698730875824</v>
+        <v>1.0442542858224308</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09590814219289594</v>
+        <v>0.4381095515665473</v>
       </c>
       <c r="E57" t="n">
-        <v>0.04096070627272819</v>
+        <v>0.5729487026320637</v>
       </c>
       <c r="F57" t="n">
-        <v>0.035999440708099024</v>
+        <v>1.0712208502471996</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2733409140866123</v>
+        <v>2.9336904173589353</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2452812215949235</v>
+        <v>1.5180294348790946</v>
       </c>
       <c r="I57" t="n">
-        <v>0.17056254154257192</v>
+        <v>0.8431256216449872</v>
       </c>
     </row>
     <row r="58">
@@ -2147,28 +2147,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>0.04335629914931986</v>
+        <v>1.0891464630518077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05790150563941252</v>
+        <v>0.6141634598081075</v>
       </c>
       <c r="D64" t="n">
-        <v>0.19176237410492197</v>
+        <v>0.9890424323235751</v>
       </c>
       <c r="E64" t="n">
-        <v>0.05117037111058649</v>
+        <v>0.8190751264732575</v>
       </c>
       <c r="F64" t="n">
-        <v>0.041855462513450035</v>
+        <v>1.4570966770765854</v>
       </c>
       <c r="G64" t="n">
-        <v>0.20436577863052527</v>
+        <v>2.866554301184868</v>
       </c>
       <c r="H64" t="n">
-        <v>0.09612810562427479</v>
+        <v>0.5782947906163249</v>
       </c>
       <c r="I64" t="n">
-        <v>0.22492501078664648</v>
+        <v>1.2029084638725085</v>
       </c>
     </row>
     <row r="65">
@@ -2350,28 +2350,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>0.026940279103674167</v>
+        <v>0.8876481057180376</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03199499587267754</v>
+        <v>0.37495834471960166</v>
       </c>
       <c r="D71" t="n">
-        <v>0.13555730628284732</v>
+        <v>0.8358890725476171</v>
       </c>
       <c r="E71" t="n">
-        <v>0.036216615527033376</v>
+        <v>0.693846865733433</v>
       </c>
       <c r="F71" t="n">
-        <v>0.02603281670825554</v>
+        <v>1.5579462022359534</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08866311324949042</v>
+        <v>1.9033248715663635</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13844279705308454</v>
+        <v>1.370522820819438</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1722418878680597</v>
+        <v>1.2994973926750994</v>
       </c>
     </row>
     <row r="72">
@@ -2553,28 +2553,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>0.021256363745294243</v>
+        <v>0.6076603371879389</v>
       </c>
       <c r="C78" t="n">
-        <v>0.013391773929152187</v>
+        <v>0.159174581466722</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09451549308639157</v>
+        <v>0.43766880176811124</v>
       </c>
       <c r="E78" t="n">
-        <v>0.034622967014979154</v>
+        <v>0.6218090240942639</v>
       </c>
       <c r="F78" t="n">
-        <v>0.005552710750685119</v>
+        <v>0.18454767830299407</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1169672451095338</v>
+        <v>1.0686192993389665</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2502673373336132</v>
+        <v>2.569468746102805</v>
       </c>
       <c r="I78" t="n">
-        <v>0.23068680222827515</v>
+        <v>1.3847770108428414</v>
       </c>
     </row>
   </sheetData>
